--- a/data/Microplastics_DataPortal_Clean_Material.xlsx
+++ b/data/Microplastics_DataPortal_Clean_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastic_Data_Portal-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1648E49-2109-9F45-9257-17D226BF9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E09CD2-3657-F345-98E3-793814CC50F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16660" yWindow="500" windowWidth="16940" windowHeight="14920" xr2:uid="{0662A643-DE80-9A42-9A77-2A553BD46290}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
   <si>
     <t>Material</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>10.1007/s11356-021-13220-1</t>
+  </si>
+  <si>
+    <t>PA;Epoxy resin</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,6 +1126,9 @@
         <v>135</v>
       </c>
       <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
